--- a/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
@@ -429,9 +429,6 @@
     <t>La genética molecular: definición e importancia</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la genética molecular y las ciencias ómicas</t>
-  </si>
-  <si>
     <t>Actividad acerca de la genética molecular, los genes y las ciencias ómicas</t>
   </si>
   <si>
@@ -489,9 +486,6 @@
     <t>Se hacen textos cortos en los que se hable de la mejora en el contenido nutricional de alimentos, la resistencia a herbicidas y plagas, incremento en la productividad de los animales, mejora genética de las razas con la fertilización in vitro, etc.</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la biotecnología moderna y sus aplicaciones</t>
-  </si>
-  <si>
     <t>Actividad acerca de las aplicaciones de la biotecnología</t>
   </si>
   <si>
@@ -549,9 +543,6 @@
     <t>En el texto se escriben las crítcas a la manipulación genética, se responde a esas críticas cuando se puede, y se contrasta con los beneficios de esta tecnología. En la sección de investiga, recomendar investigar sobre los organismos transgénicos; es importante insistir en que se busquen fuentes confiables y acreditadas, pues hay mucha desinformación en la red.</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la ingeniería genética</t>
-  </si>
-  <si>
     <t>Actividad acerca de la ingeniería genética</t>
   </si>
   <si>
@@ -582,9 +573,6 @@
     <t>Consolidación</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la bioinformática</t>
-  </si>
-  <si>
     <t>Actividad que trata sore la bioinformática y sus aplicaciones</t>
   </si>
   <si>
@@ -633,9 +621,6 @@
     <t>Un contenedor para proyecto genoma humano y otro para ENCODE. Las etiquetas tienen características diferenciales de cada proyecto. Es importante no poner cosas que apliquen para ambos contenedores.</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: grandes proyecto de investigación de la genética molecular humana</t>
-  </si>
-  <si>
     <t>Actividad acerca de los proyectos genoma humano y ENCODE</t>
   </si>
   <si>
@@ -790,6 +775,21 @@
   </si>
   <si>
     <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La genética molecular y las ciencias ómicas</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La biotecnología moderna y sus aplicaciones</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La ingeniería genética</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La bioinformática</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Grandes proyectos de investigación de la genética molecular humana</t>
   </si>
 </sst>
 </file>
@@ -1063,30 +1063,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,6 +1070,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,6 +1121,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,7 +1454,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,94 +1481,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1617,16 +1617,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1678,16 +1678,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1739,16 +1739,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1765,11 +1765,11 @@
         <v>135</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1778,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1791,7 +1791,7 @@
         <v>52</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1800,16 +1800,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1823,12 +1823,12 @@
         <v>123</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -1837,7 +1837,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -1850,25 +1850,25 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1882,14 +1882,14 @@
         <v>123</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -1898,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1911,7 +1911,7 @@
         <v>28</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>19</v>
@@ -1920,16 +1920,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1943,14 +1943,14 @@
         <v>123</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -1959,7 +1959,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>20</v>
@@ -1972,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>19</v>
@@ -1981,16 +1981,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2004,14 +2004,14 @@
         <v>123</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -2020,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2033,7 +2033,7 @@
         <v>27</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -2042,16 +2042,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2065,14 +2065,14 @@
         <v>123</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H11" s="9">
         <v>9</v>
@@ -2081,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2094,25 +2094,25 @@
         <v>33</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2126,14 +2126,14 @@
         <v>123</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2142,7 +2142,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -2155,7 +2155,7 @@
         <v>52</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
@@ -2164,16 +2164,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2187,14 +2187,14 @@
         <v>123</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2203,7 +2203,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2225,16 +2225,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2248,14 +2248,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2264,7 +2264,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2275,25 +2275,25 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="T14" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="S14" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="U14" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2307,14 +2307,14 @@
         <v>123</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2323,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2336,7 +2336,7 @@
         <v>23</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2345,16 +2345,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2368,14 +2368,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2384,7 +2384,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -2395,25 +2395,25 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2427,14 +2427,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -2443,7 +2443,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2465,16 +2465,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2488,14 +2488,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -2504,7 +2504,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2517,7 +2517,7 @@
         <v>52</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2526,16 +2526,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2549,14 +2549,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -2565,7 +2565,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2587,16 +2587,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2610,14 +2610,14 @@
         <v>123</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2626,7 +2626,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2639,7 +2639,7 @@
         <v>51</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2648,16 +2648,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2671,14 +2671,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2687,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2700,7 +2700,7 @@
         <v>52</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2709,16 +2709,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2732,12 +2732,12 @@
         <v>123</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2746,7 +2746,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2768,16 +2768,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2791,14 +2791,14 @@
         <v>123</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2807,7 +2807,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2820,25 +2820,25 @@
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2852,14 +2852,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -2868,7 +2868,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2881,7 +2881,7 @@
         <v>43</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -2890,16 +2890,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2913,14 +2913,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -2929,7 +2929,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2942,7 +2942,7 @@
         <v>52</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -2951,16 +2951,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2974,12 +2974,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -2988,7 +2988,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
@@ -3005,19 +3005,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S26" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="T26" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>235</v>
-      </c>
       <c r="U26" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3031,12 +3031,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -3045,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -3062,19 +3062,19 @@
         <v>19</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3088,12 +3088,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3102,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3115,25 +3115,25 @@
         <v>121</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
@@ -3161,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3190,12 +3190,12 @@
         <v>123</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
@@ -3204,7 +3204,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3224,16 +3224,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3247,12 +3247,12 @@
         <v>123</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3261,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3281,16 +3281,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4173,6 +4173,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4187,12 +4193,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I61">

--- a/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="258">
   <si>
     <t>Asignatura</t>
   </si>
@@ -402,24 +402,15 @@
     <t>Actividad acerca de las diferentes definiciones de gen</t>
   </si>
   <si>
-    <t>Se deben ordenar cronológicamente las definiciones de gen: la que dice que el gen es simplememte una unidad discreta que contiene información de los seres vivos; la que dice que es una secuecia de ADN que tiene la información para hacer una proteína, y la que dice que es una secuencia de ADN con la información para hacer moléculas funcionales</t>
-  </si>
-  <si>
     <t>La definición moderna de gen</t>
   </si>
   <si>
-    <t>Las ciencias ÓMICAS</t>
-  </si>
-  <si>
     <t>Conoce algunas de las ciencias ómicas</t>
   </si>
   <si>
     <t>Explicar qué es la genética molecular y por qué es importante, cómo se define un gen (ya no sólo para producir una proteína, sino una molécula funcional que puede ser ARN), y qué son las ciencias ómicas (conn explicar genómica, transcriptómica y proteómica basta, aunque hay que decir que hay más).</t>
   </si>
   <si>
-    <t>Actividad acerca de algunas ciencias ómicas y su definicón</t>
-  </si>
-  <si>
     <t>Escribir los nombres de ciencias ómicas y hacer etiquetas con las definiciones</t>
   </si>
   <si>
@@ -432,9 +423,6 @@
     <t>Actividad acerca de la genética molecular, los genes y las ciencias ómicas</t>
   </si>
   <si>
-    <t>Preguntas sobre importancia de la genética molecular, definición de gen y ciencias ómicas.</t>
-  </si>
-  <si>
     <t>La biotecnología moderna y sus aplicaciones</t>
   </si>
   <si>
@@ -462,9 +450,6 @@
     <t>Las aplicaciones de la biotecnología</t>
   </si>
   <si>
-    <t>Se hace un texto en el que se explique cómo labiotecnología puede ayudar a detectar, eliminar y prevenir problemas medioambientales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se hace un texto en el que se hable del aporte biotecnológico al diagnóstico de enfermedades, tratamiento, elaboración de vacunas e investigación médica en general. </t>
   </si>
   <si>
@@ -480,9 +465,6 @@
     <t>Actividad acerca de los aportes de la biotecnología al estudio y la conservación del medio ambiente</t>
   </si>
   <si>
-    <t>Cada imagen de menú contiene un campo de acción de la biotecnología. Hay una para medicina, una para ganadería, otra para agricultura, y otra para investigación científica. Hace falta hacer una imagen más para hablar del uso de la biotecnología en el estudio y conservación del medio ambiente</t>
-  </si>
-  <si>
     <t>Se hacen textos cortos en los que se hable de la mejora en el contenido nutricional de alimentos, la resistencia a herbicidas y plagas, incremento en la productividad de los animales, mejora genética de las razas con la fertilización in vitro, etc.</t>
   </si>
   <si>
@@ -498,9 +480,6 @@
     <t>La ingeniería genética</t>
   </si>
   <si>
-    <t>Interactivo que explica la ingeniería genética</t>
-  </si>
-  <si>
     <t>Se explican las enzimas de restricción, la electroforesis, la PCR y la secuenciación</t>
   </si>
   <si>
@@ -510,9 +489,6 @@
     <t>Animación que describe las etapas del proceso de clonación</t>
   </si>
   <si>
-    <t>Hay que modificar el acento del audio</t>
-  </si>
-  <si>
     <t>Las herramientas de la ingeniería genética</t>
   </si>
   <si>
@@ -531,9 +507,6 @@
     <t>Animación que discute las posibilidades y riesgos de la manipulación genética</t>
   </si>
   <si>
-    <t>En el texto se escriben las crítcas a la manipulación genética, se responde a esas críticas cuando se puede, y se contrasta con los beneficios de esta tecnología</t>
-  </si>
-  <si>
     <t>Interactivo que aborda algunos de los debates éticos asociados al uso de la biotecnología</t>
   </si>
   <si>
@@ -543,9 +516,6 @@
     <t>En el texto se escriben las crítcas a la manipulación genética, se responde a esas críticas cuando se puede, y se contrasta con los beneficios de esta tecnología. En la sección de investiga, recomendar investigar sobre los organismos transgénicos; es importante insistir en que se busquen fuentes confiables y acreditadas, pues hay mucha desinformación en la red.</t>
   </si>
   <si>
-    <t>Actividad acerca de la ingeniería genética</t>
-  </si>
-  <si>
     <t>Se pregunta las herramientas biotecnológicas y los debates éticos asociados</t>
   </si>
   <si>
@@ -567,24 +537,12 @@
     <t>Se debe explicar qué es la bioinformática, y entre sus aplicaciones se habla de la búsqueda de información biomédica, la comparación de secuencias de nucleótidos o aminoácidos, la genómica comparativa y la biología evolutiva computacional.</t>
   </si>
   <si>
-    <t>Se preguntan diversos aspectos de biotecnología. El recurso es útil para una evaluación.</t>
-  </si>
-  <si>
     <t>Consolidación</t>
   </si>
   <si>
-    <t>Actividad que trata sore la bioinformática y sus aplicaciones</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preguntar qué es bioinformática, y preguntar por sus diversas aplicaciones. También preguntar para qué más se puede usar además de lo dicho en el guion. </t>
   </si>
   <si>
-    <t>Términos asociados a la bioinformática</t>
-  </si>
-  <si>
-    <t>Actividad para recordar algunos témrinos asociados a la labor bioinformática</t>
-  </si>
-  <si>
     <t>La genética molecular humana</t>
   </si>
   <si>
@@ -603,9 +561,6 @@
     <t>El proyecto genoma humano</t>
   </si>
   <si>
-    <t>Además de los cambios propios del idioma, se debe quitar la parte que dice que es la primera vez que los estudiantes oyen de eso.</t>
-  </si>
-  <si>
     <t>Interactivo que propone investigar acerca del Proyecto genoma humano</t>
   </si>
   <si>
@@ -615,9 +570,6 @@
     <t>¿Qué diferencias hay entre el Proyecto genoma humano y el proyecto ENCODE?</t>
   </si>
   <si>
-    <t>Actividad para diferenciar las caracteristicas de los proyectos genoma humano y ENCODE</t>
-  </si>
-  <si>
     <t>Un contenedor para proyecto genoma humano y otro para ENCODE. Las etiquetas tienen características diferenciales de cada proyecto. Es importante no poner cosas que apliquen para ambos contenedores.</t>
   </si>
   <si>
@@ -630,9 +582,6 @@
     <t xml:space="preserve">Competencias </t>
   </si>
   <si>
-    <t>Competencias: el uso de la biotecnología en salud</t>
-  </si>
-  <si>
     <t>Actividad que propone realizar un procedimiento de revisión de la terapia génica</t>
   </si>
   <si>
@@ -648,9 +597,6 @@
     <t>Actividad que guía el trabajo colaborativo para investigar sobre las aplicaciones que tiene el conocimiento del genoma humano y las utilidades que puede tener en el futuro</t>
   </si>
   <si>
-    <t>Se deben cambiar en el texto los términos propios de España (podeis, vosotros, etc.)</t>
-  </si>
-  <si>
     <t>Fin de unidad</t>
   </si>
   <si>
@@ -790,6 +736,63 @@
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Grandes proyectos de investigación de la genética molecular humana</t>
+  </si>
+  <si>
+    <t>Actividad acerca de algunas ciencias ómicas y su definición</t>
+  </si>
+  <si>
+    <t>Competencias: el uso de la biotecnología en la salud</t>
+  </si>
+  <si>
+    <t>Se deben cambiar en el texto los términos propios de España (podéis, vosotros, etc.)</t>
+  </si>
+  <si>
+    <t>Se hace un texto en el que se explique cómo la biotecnología puede ayudar a detectar, eliminar y prevenir problemas medioambientales.</t>
+  </si>
+  <si>
+    <t>Interactivo que explica algunas de las técnicas más importantes en ingeniería genética</t>
+  </si>
+  <si>
+    <t>Actividad acerca de las técnicas de la ingeniería genética y los debates éticos relacionados</t>
+  </si>
+  <si>
+    <t>Repasa algunos términos asociados a la bioinformática</t>
+  </si>
+  <si>
+    <t>Actividad para recordar algunos términos asociados a la labor bioinformática</t>
+  </si>
+  <si>
+    <t>Actividad que trata sobre la bioinformática y sus aplicaciones</t>
+  </si>
+  <si>
+    <t>Actividad para diferenciar las características de los proyectos genoma humano y ENCODE</t>
+  </si>
+  <si>
+    <t>Las ciencias ómicas</t>
+  </si>
+  <si>
+    <t>Preguntas sobre importancia de la genética molecular, definición de gen y ciencias ómicas. Se pueden incluir estas preguntas: 1. ¿En qué se diferencia la genética molecular de la biología molecular? 2. Lista y explica al menos tres avances en genética molecular 3. ¿Qué relación tienen: la genética, la biología molecular y la genética molecular? 4. Describe la importancia de la genética molecular en el mundo actual</t>
+  </si>
+  <si>
+    <t>Se deben ordenar cronológicamente las definiciones de gen: la que dice que el gen es simplemente una unidad discreta que contiene información de los seres vivos; la que dice que es una secuecia de ADN que tiene la información para hacer una proteína, y la que dice que es una secuencia de ADN con la información para hacer moléculas funcionales.</t>
+  </si>
+  <si>
+    <t>Se preguntan diversos aspectos de biotecnología. El recurso es útil para una evaluación. Eliminar la pregunta: ¿Cuál fue uno de los primeros usos de la biotecnología en salud? Y sus respectivas opciones de respuesta. Todo lo demás se conserva igual.</t>
+  </si>
+  <si>
+    <t>Cada imagen de menú contiene un campo de acción de la biotecnología. Hay una para medicina, una para ganadería, otra para agricultura, y otra para investigación científica. Hace falta hacer una imagen más para hablar del uso de la biotecnología en el estudio y conservación del medio ambiente. Se requiere el cambio en el audio, y hay modificaciones en las fichas. Ver cuaderno de estudio.</t>
+  </si>
+  <si>
+    <t>Hay que modificar el acento del audio. Hay cambios en las fichas; ver cuaderno de estudio.</t>
+  </si>
+  <si>
+    <t>Se debe cambiar el acento del audio,</t>
+  </si>
+  <si>
+    <t>Además de los cambios propios del idioma, se debe quitar la parte que dice que es la primera vez que los estudiantes oyen de eso. Ver más cambios en el cuaderno de estudio.</t>
+  </si>
+  <si>
+    <t>En las instrucciones, cambiar la palabra "visionado" por "observación".</t>
   </si>
 </sst>
 </file>
@@ -1063,6 +1066,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,9 +1097,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,27 +1145,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,7 +1457,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,94 +1484,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="35"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="48"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1581,12 +1584,12 @@
         <v>123</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="19"/>
       <c r="G3" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1608,7 +1611,7 @@
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>19</v>
@@ -1617,16 +1620,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1640,10 +1643,10 @@
         <v>123</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="16" t="s">
@@ -1669,7 +1672,7 @@
         <v>45</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>19</v>
@@ -1678,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S4" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>238</v>
-      </c>
       <c r="U4" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1701,14 +1704,14 @@
         <v>123</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -1717,7 +1720,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1730,7 +1733,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>19</v>
@@ -1739,16 +1742,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1762,14 +1765,14 @@
         <v>123</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1778,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1791,7 +1794,7 @@
         <v>52</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1800,16 +1803,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1823,12 +1826,12 @@
         <v>123</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -1837,7 +1840,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -1850,25 +1853,25 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1882,14 +1885,14 @@
         <v>123</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -1898,7 +1901,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1911,7 +1914,7 @@
         <v>28</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>19</v>
@@ -1920,16 +1923,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1943,14 +1946,14 @@
         <v>123</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -1959,7 +1962,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>20</v>
@@ -1972,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>19</v>
@@ -1981,16 +1984,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2004,14 +2007,14 @@
         <v>123</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -2020,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2033,7 +2036,7 @@
         <v>27</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -2042,16 +2045,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2065,14 +2068,14 @@
         <v>123</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H11" s="9">
         <v>9</v>
@@ -2081,7 +2084,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2094,25 +2097,25 @@
         <v>33</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2126,14 +2129,14 @@
         <v>123</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2142,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -2155,7 +2158,7 @@
         <v>52</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
@@ -2164,16 +2167,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2187,14 +2190,14 @@
         <v>123</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2203,7 +2206,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2216,7 +2219,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2225,16 +2228,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="T13" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="U13" s="10" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2248,14 +2251,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2264,7 +2267,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2275,25 +2278,25 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2307,14 +2310,14 @@
         <v>123</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2323,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2336,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2345,16 +2348,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2368,14 +2371,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2384,7 +2387,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -2395,25 +2398,25 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2427,14 +2430,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -2443,7 +2446,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2456,7 +2459,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2465,16 +2468,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="S17" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>235</v>
-      </c>
       <c r="U17" s="10" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2488,14 +2491,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -2504,7 +2507,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2517,7 +2520,7 @@
         <v>52</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2526,16 +2529,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2549,14 +2552,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -2565,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2578,7 +2581,7 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2587,16 +2590,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2610,14 +2613,14 @@
         <v>123</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2626,7 +2629,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2639,7 +2642,7 @@
         <v>51</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2648,16 +2651,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2671,14 +2674,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2687,7 +2690,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2699,9 +2702,7 @@
       <c r="N21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="9" t="s">
-        <v>185</v>
-      </c>
+      <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
         <v>19</v>
       </c>
@@ -2709,16 +2710,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2732,12 +2733,12 @@
         <v>123</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2746,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2759,7 +2760,7 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2768,16 +2769,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2791,14 +2792,14 @@
         <v>123</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2807,7 +2808,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2820,25 +2821,25 @@
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2852,14 +2853,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -2868,7 +2869,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2881,7 +2882,7 @@
         <v>43</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -2890,16 +2891,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2913,14 +2914,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -2929,7 +2930,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2942,7 +2943,7 @@
         <v>52</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -2951,16 +2952,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2974,12 +2975,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -2988,7 +2989,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
@@ -3005,19 +3006,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3031,12 +3032,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -3045,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -3057,24 +3058,26 @@
       <c r="N27" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3088,12 +3091,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3102,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3115,25 +3118,25 @@
         <v>121</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="P28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3147,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
@@ -3161,7 +3164,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3190,12 +3193,12 @@
         <v>123</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
@@ -3204,7 +3207,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3224,16 +3227,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3247,12 +3250,12 @@
         <v>123</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3261,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3281,16 +3284,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4173,12 +4176,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4193,6 +4190,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I61">

--- a/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="257">
   <si>
     <t>Asignatura</t>
   </si>
@@ -589,9 +589,6 @@
   </si>
   <si>
     <t xml:space="preserve">Actividad que propone analizar las técnicas biotecnológicas que se emplean en agricultura </t>
-  </si>
-  <si>
-    <t>Competencias: estudio de las aplicaciones del conocimiento del genoma</t>
   </si>
   <si>
     <t>Actividad que guía el trabajo colaborativo para investigar sobre las aplicaciones que tiene el conocimiento del genoma humano y las utilidades que puede tener en el futuro</t>
@@ -1066,30 +1063,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,6 +1070,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,6 +1121,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1484,94 +1481,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1620,16 +1617,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="T3" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="U3" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1672,7 +1669,7 @@
         <v>45</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>19</v>
@@ -1681,16 +1678,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T4" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1707,7 +1704,7 @@
         <v>132</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
@@ -1720,7 +1717,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1742,16 +1739,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T5" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1772,7 +1769,7 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1794,7 +1791,7 @@
         <v>52</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1803,16 +1800,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="T6" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="U6" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1853,25 +1850,25 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="T7" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="U7" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1923,16 +1920,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T8" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1984,16 +1981,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T9" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2036,7 +2033,7 @@
         <v>27</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -2045,16 +2042,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T10" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2097,25 +2094,25 @@
         <v>33</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="S11" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>150</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2136,7 +2133,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2167,16 +2164,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S12" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T12" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2193,7 +2190,7 @@
         <v>152</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
@@ -2206,7 +2203,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2228,16 +2225,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="T13" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2254,7 +2251,7 @@
         <v>152</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
@@ -2278,25 +2275,25 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="S14" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="T14" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2313,7 +2310,7 @@
         <v>152</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
@@ -2348,16 +2345,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S15" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T15" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2398,25 +2395,25 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>160</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2468,16 +2465,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="T17" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2498,7 +2495,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -2507,7 +2504,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2529,16 +2526,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T18" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2590,16 +2587,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="T19" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="U19" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2620,7 +2617,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2629,7 +2626,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2651,16 +2648,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T20" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2681,7 +2678,7 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2690,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2710,16 +2707,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S21" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T21" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2769,16 +2766,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="S22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="T22" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2821,25 +2818,25 @@
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>178</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2869,7 +2866,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2891,16 +2888,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S24" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T24" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2921,7 +2918,7 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -2952,16 +2949,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S25" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S25" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T25" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2980,7 +2977,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -3006,19 +3003,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="S26" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="S26" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="T26" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3059,25 +3056,25 @@
         <v>121</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="S27" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="S27" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="T27" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3096,7 +3093,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3105,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3118,25 +3115,25 @@
         <v>121</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="R28" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="S28" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="S28" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="T28" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3150,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
@@ -3164,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3193,12 +3190,12 @@
         <v>123</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
@@ -3207,7 +3204,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3227,16 +3224,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S30" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S30" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T30" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3250,12 +3247,12 @@
         <v>123</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3264,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3284,16 +3281,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S31" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="S31" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="T31" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4176,6 +4173,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4190,12 +4193,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I61">

--- a/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11535"/>
   </bookViews>
@@ -11,9 +16,9 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$31</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1063,6 +1068,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,9 +1099,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,27 +1147,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,7 +1209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1239,7 +1244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1451,10 +1456,10 @@
   <dimension ref="A1:U122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1473,7 @@
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="9" width="10.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="13" max="14" width="9.140625" customWidth="1"/>
     <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1481,94 +1486,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="35"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="48"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4169,16 +4174,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U2">
+  <autoFilter ref="A1:U31">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4193,6 +4192,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I61">

--- a/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/Escaleta CN_09_02_CO.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$31</definedName>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="257">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1068,30 +1063,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1099,6 +1070,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,6 +1121,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,7 +1204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1244,7 +1239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1455,11 +1450,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7:K28"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,8 +1471,8 @@
     <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="13" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1486,94 +1481,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1850,9 +1845,7 @@
       <c r="L7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
         <v>252</v>
@@ -2818,9 +2811,7 @@
       <c r="L23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
         <v>255</v>
@@ -3000,9 +2991,7 @@
         <v>8</v>
       </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N26" s="8"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -3057,9 +3046,7 @@
         <v>8</v>
       </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N27" s="8"/>
       <c r="O27" s="9" t="s">
         <v>256</v>
       </c>
@@ -3116,9 +3103,7 @@
         <v>8</v>
       </c>
       <c r="M28" s="8"/>
-      <c r="N28" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N28" s="8"/>
       <c r="O28" s="9" t="s">
         <v>240</v>
       </c>
@@ -4174,10 +4159,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U31">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4192,12 +4180,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I61">
